--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.2028382723242572</v>
+        <v>1.782259294303912</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-1.120856461469888</v>
+        <v>-0.9921462019007898</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.5959239132369731</v>
+        <v>-0.3230348957779294</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.2946875655135184</v>
+        <v>0.2467309912830284</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.6309321758273256</v>
+        <v>-0.06959526544320083</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.242549344471122</v>
+        <v>1.160201558804674</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>2.01634251950924</v>
+        <v>0.2932139896134167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.180122656701199</v>
+        <v>1.048604932640185</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.939772997598466</v>
+        <v>1.078804187516891</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.381744454873757</v>
+        <v>1.06837811337479</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.090021059558644</v>
+        <v>1.25598608434605</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.404039427736437</v>
+        <v>1.435208340819005</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.084642581417584</v>
+        <v>1.407107513712802</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.593617458167307</v>
+        <v>1.577589817310243</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.521991363853026</v>
+        <v>1.464859320654099</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.885212754467758</v>
+        <v>1.979569114089963</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.6904035303825</v>
+        <v>1.639881111696151</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.877372574190161</v>
+        <v>1.815212363528707</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.014077225132471</v>
+        <v>1.806931013599544</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.296241910075758</v>
+        <v>2.284026378382942</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.948889539247078</v>
+        <v>2.119133965447961</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.120504106595632</v>
+        <v>1.264761787657309</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.381641980784787</v>
+        <v>1.798687504247187</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-1.841794035573197</v>
+        <v>0.824608016336259</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.859952625832229</v>
+        <v>1.395219579261608</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.2827693069175186</v>
+        <v>-1.4191429117966</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>6.200092505048471</v>
+        <v>-0.1125839228000469</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.133246428602353</v>
+        <v>1.896944139870205</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.260264546812519</v>
+        <v>0.5116467003986713</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.692247441448246</v>
+        <v>-0.7016063587211741</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.168821580544521</v>
+        <v>0.2942159770784825</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.09977030619552352</v>
+        <v>-0.1754728623905355</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.359191874382004</v>
+        <v>-0.0331361487157622</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6151910652193671</v>
+        <v>0.5695821893874298</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.258496331371473</v>
+        <v>0.316149716722669</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>1.981300392979479</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>1.782259294303912</v>
+        <v>2.228397109637226</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-0.9921462019007898</v>
+        <v>-0.4626567965509865</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.3230348957779294</v>
+        <v>-0.2018858887078534</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.2467309912830284</v>
+        <v>-0.4861108058567654</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-0.06959526544320083</v>
+        <v>0.2108047537406676</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.160201558804674</v>
+        <v>2.490556233265284</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.2932139896134167</v>
+        <v>0.9684279156219944</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.048604932640185</v>
+        <v>1.175152734113438</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.078804187516891</v>
+        <v>1.69818237209749</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.06837811337479</v>
+        <v>-0.2674335569108899</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.25598608434605</v>
+        <v>0.679606031449409</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.435208340819005</v>
+        <v>2.038609866767938</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.407107513712802</v>
+        <v>1.325176859452326</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.577589817310243</v>
+        <v>1.566972126803345</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.464859320654099</v>
+        <v>1.522808462763714</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.979569114089963</v>
+        <v>2.246337373619012</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.639881111696151</v>
+        <v>1.693557061600992</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.815212363528707</v>
+        <v>1.777150434343522</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.806931013599544</v>
+        <v>1.905564797014625</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.284026378382942</v>
+        <v>1.741137453897301</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.119133965447961</v>
+        <v>2.082477074609068</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.264761787657309</v>
+        <v>1.562095320687407</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.798687504247187</v>
+        <v>1.845103901518885</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.824608016336259</v>
+        <v>-0.8985012482809474</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>1.395219579261608</v>
+        <v>0.02570757229449772</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.4191429117966</v>
+        <v>-0.7241284594088016</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.1125839228000469</v>
+        <v>-0.1006764062950749</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.896944139870205</v>
+        <v>3.72986100763808</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.5116467003986713</v>
+        <v>1.357201584213352</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.7016063587211741</v>
+        <v>-0.3358560228777674</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.2942159770784825</v>
+        <v>1.155533515694374</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.1754728623905355</v>
+        <v>-1.054811008161194</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.0331361487157622</v>
+        <v>-0.009717596728553435</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5695821893874298</v>
+        <v>1.593155398714674</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.316149716722669</v>
+        <v>0.1924237296221154</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.7241284594088016</v>
+        <v>-1.993193775713065</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.1006764062950749</v>
+        <v>-1.870909066467608</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>3.72986100763808</v>
+        <v>3.466439014514577</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.357201584213352</v>
+        <v>1.000518914838766</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.3358560228777674</v>
+        <v>-0.2883789941992343</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.155533515694374</v>
+        <v>1.082231571968229</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-1.054811008161194</v>
+        <v>-1.006986634874207</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.009717596728553435</v>
+        <v>-0.06480517924443152</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.593155398714674</v>
+        <v>1.431852292002267</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.1924237296221154</v>
+        <v>-0.3363763021410726</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>1.981300392979479</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>2.228397109637226</v>
+        <v>2.228397109637203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-0.4626567965509865</v>
+        <v>-0.4626567965509643</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.2018858887078534</v>
+        <v>-0.2018858887078645</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,7 +460,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.2108047537406676</v>
+        <v>0.2108047537406454</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,7 +477,7 @@
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.9684279156219944</v>
+        <v>0.96842791562195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,7 +494,7 @@
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.69818237209749</v>
+        <v>1.698182372097512</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.2674335569108899</v>
+        <v>-0.2674335569108788</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -525,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>2.038609866767938</v>
+        <v>2.038609866767915</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.325176859452326</v>
+        <v>1.325176859452348</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -548,7 +545,7 @@
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.522808462763714</v>
+        <v>1.522808462763692</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.246337373619012</v>
+        <v>2.246337373618967</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.693557061600992</v>
+        <v>1.693557061600948</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.777150434343522</v>
+        <v>1.777150434343544</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.905564797014625</v>
+        <v>1.905564797014669</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.741137453897301</v>
+        <v>1.741137453897323</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.082477074609068</v>
+        <v>2.08247707460909</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.562095320687407</v>
+        <v>1.562095320687429</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.845103901518885</v>
+        <v>1.845103901518907</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,7 +630,7 @@
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.02570757229449772</v>
+        <v>0.02570757229445331</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -678,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.2883789941992343</v>
+        <v>-0.2883789941992232</v>
       </c>
       <c r="D17">
         <v>2024</v>
@@ -712,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.431852292002267</v>
+        <v>1.431852292002245</v>
       </c>
       <c r="D19">
         <v>2026</v>
